--- a/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyWeight.xlsx
+++ b/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyWeight.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Norwegian basis profile for VitalSigns Observation - Body Weight</t>
+    <t>Norwegian base profile for VitalSigns Observation - Body Weight</t>
   </si>
   <si>
     <t>Status</t>
